--- a/Daily Backup hourlys/30 min csh/BN.xlsx
+++ b/Daily Backup hourlys/30 min csh/BN.xlsx
@@ -586,19 +586,19 @@
       <c r="D7" s="1" t="n"/>
       <c r="E7" s="1" t="n"/>
       <c r="F7" s="2" t="n">
-        <v>43740.05</v>
+        <v>48229.15</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>43759.95</v>
+        <v>48265</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>43375</v>
+        <v>47316.6</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>43587.95</v>
+        <v>47480.55</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>43791.85</v>
+        <v>47480.55</v>
       </c>
       <c r="K7" s="2" t="n"/>
       <c r="L7" s="2" t="n"/>
@@ -649,13 +649,13 @@
         <v>0.3958333333333333</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>43795.3</v>
+        <v>47305</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>43661.45</v>
+        <v>46964.7</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>43677.85</v>
+        <v>47108.9</v>
       </c>
       <c r="J9" s="2" t="n"/>
       <c r="K9" s="2" t="n"/>
@@ -674,13 +674,13 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>43749.75</v>
+        <v>47241.4</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>43671.3</v>
+        <v>46971.05</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>43716.15</v>
+        <v>47155</v>
       </c>
       <c r="J10" s="2" t="n"/>
       <c r="K10" s="2" t="n"/>
@@ -699,13 +699,13 @@
         <v>0.4375</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>43759.95</v>
+        <v>47420.95</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>43639.65</v>
+        <v>47130</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>43657.35</v>
+        <v>47305</v>
       </c>
       <c r="J11" s="2" t="n"/>
       <c r="K11" s="2" t="n"/>
@@ -724,13 +724,13 @@
         <v>0.4583333333333333</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>43702.1</v>
+        <v>47444.55</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>43615</v>
+        <v>47230.9</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>43679.65</v>
+        <v>47443.95</v>
       </c>
       <c r="J12" s="2" t="n"/>
       <c r="K12" s="2" t="n"/>
@@ -749,13 +749,13 @@
         <v>0.4791666666666667</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>43695.6</v>
+        <v>47621.05</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>43645</v>
+        <v>47383</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>43648.55</v>
+        <v>47412.75</v>
       </c>
       <c r="J13" s="2" t="n"/>
       <c r="K13" s="2" t="n"/>
@@ -774,13 +774,13 @@
         <v>0.5</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>43680</v>
+        <v>47505.05</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>43506.2</v>
+        <v>47410</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>43523</v>
+        <v>47471.55</v>
       </c>
       <c r="J14" s="2" t="n"/>
       <c r="K14" s="2" t="n"/>
@@ -799,13 +799,13 @@
         <v>0.5208333333333334</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>43545.45</v>
+        <v>47560.8</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>43375</v>
+        <v>47436.05</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>43418.85</v>
+        <v>47559.1</v>
       </c>
       <c r="J15" s="2" t="n"/>
       <c r="K15" s="2" t="n"/>
@@ -824,13 +824,13 @@
         <v>0.5416666666666666</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>43470.75</v>
+        <v>47780.1</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>43410</v>
+        <v>47526.7</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>43433.35</v>
+        <v>47670.05</v>
       </c>
       <c r="J16" s="2" t="n"/>
       <c r="K16" s="2" t="n"/>
@@ -849,13 +849,13 @@
         <v>0.5625</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>43481.5</v>
+        <v>47700</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>43395.6</v>
+        <v>47583</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>43459.2</v>
+        <v>47661.75</v>
       </c>
       <c r="J17" s="2" t="n"/>
       <c r="K17" s="2" t="n"/>
@@ -874,13 +874,13 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>43488.05</v>
+        <v>47712</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>43426.6</v>
+        <v>47502.75</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>43442.35</v>
+        <v>47561</v>
       </c>
       <c r="J18" s="2" t="n"/>
       <c r="K18" s="2" t="n"/>
@@ -899,13 +899,13 @@
         <v>0.6041666666666666</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>43525.55</v>
+        <v>47710.9</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>43416.6</v>
+        <v>47439.75</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v>43512.3</v>
+        <v>47698.2</v>
       </c>
       <c r="J19" s="2" t="n"/>
       <c r="K19" s="2" t="n"/>
@@ -924,13 +924,13 @@
         <v>0.625</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>43605.25</v>
+        <v>48166.3</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>43509.4</v>
+        <v>47673.6</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>43580.55</v>
+        <v>48038.85</v>
       </c>
       <c r="J20" s="2" t="n"/>
       <c r="K20" s="2" t="n"/>
@@ -949,13 +949,13 @@
         <v>0.6458333333333334</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>43627.8</v>
+        <v>48207.95</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>43543</v>
+        <v>48000</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>43623</v>
+        <v>48082</v>
       </c>
       <c r="J21" s="2" t="n"/>
       <c r="K21" s="2" t="n"/>
